--- a/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S10/S10_storagemod.xlsx
+++ b/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S10/S10_storagemod.xlsx
@@ -14,204 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Frequency (Hz)</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>0.01374178857149243</t>
-  </si>
-  <si>
-    <t>0.0181717562972194</t>
-  </si>
-  <si>
-    <t>0.023640824251796644</t>
-  </si>
-  <si>
-    <t>0.03125947240458293</t>
-  </si>
-  <si>
-    <t>0.04133186378377802</t>
-  </si>
-  <si>
-    <t>0.05376167888792931</t>
-  </si>
-  <si>
-    <t>0.0722602694542401</t>
-  </si>
-  <si>
-    <t>0.10035341452075833</t>
-  </si>
-  <si>
-    <t>0.1387958464760847</t>
-  </si>
-  <si>
-    <t>0.19037593542178663</t>
-  </si>
-  <si>
-    <t>0.2687128333529436</t>
-  </si>
-  <si>
-    <t>0.37928215183581804</t>
-  </si>
-  <si>
-    <t>0.5441033063349225</t>
-  </si>
-  <si>
-    <t>0.7804114384264618</t>
-  </si>
-  <si>
-    <t>1.119234397422204</t>
-  </si>
-  <si>
-    <t>1.5645954155348785</t>
-  </si>
-  <si>
-    <t>2.3242984696599622</t>
-  </si>
-  <si>
-    <t>3.299927995501933</t>
-  </si>
-  <si>
-    <t>4.730424473778762</t>
-  </si>
-  <si>
-    <t>6.7806998847437185</t>
-  </si>
-  <si>
-    <t>9.719453648788145</t>
-  </si>
-  <si>
-    <t>13.930045821570419</t>
-  </si>
-  <si>
-    <t>19.964069701118316</t>
-  </si>
-  <si>
-    <t>28.608796691612444</t>
-  </si>
-  <si>
-    <t>40.99280406762014</t>
-  </si>
-  <si>
-    <t>58.735133836091705</t>
-  </si>
-  <si>
-    <t>84.16554057025853</t>
-  </si>
-  <si>
-    <t>120.5789658387381</t>
-  </si>
-  <si>
-    <t>172.73505131183788</t>
-  </si>
-  <si>
-    <t>247.4450510451966</t>
-  </si>
-  <si>
-    <t>354.4766974226331</t>
-  </si>
-  <si>
-    <t>483.5248562583791</t>
-  </si>
-  <si>
-    <t>1.499311272168197</t>
-  </si>
-  <si>
-    <t>2.5383378027767196</t>
-  </si>
-  <si>
-    <t>4.29462337821244</t>
-  </si>
-  <si>
-    <t>7.121319105165592</t>
-  </si>
-  <si>
-    <t>11.697891892880913</t>
-  </si>
-  <si>
-    <t>18.887879809392516</t>
-  </si>
-  <si>
-    <t>31.714664181805777</t>
-  </si>
-  <si>
-    <t>54.28886951137018</t>
-  </si>
-  <si>
-    <t>92.01268769598009</t>
-  </si>
-  <si>
-    <t>149.95476386508184</t>
-  </si>
-  <si>
-    <t>250.14072279558542</t>
-  </si>
-  <si>
-    <t>416.6711010700641</t>
-  </si>
-  <si>
-    <t>676.8359044340086</t>
-  </si>
-  <si>
-    <t>1049.9797296519694</t>
-  </si>
-  <si>
-    <t>1585.588648758835</t>
-  </si>
-  <si>
-    <t>2265.200435986275</t>
-  </si>
-  <si>
-    <t>3454.3875526301663</t>
-  </si>
-  <si>
-    <t>4817.018336925748</t>
-  </si>
-  <si>
-    <t>6444.545654984497</t>
-  </si>
-  <si>
-    <t>8512.750994298007</t>
-  </si>
-  <si>
-    <t>11197.010758871304</t>
-  </si>
-  <si>
-    <t>14235.429717899726</t>
-  </si>
-  <si>
-    <t>17945.193584373705</t>
-  </si>
-  <si>
-    <t>22005.448489080874</t>
-  </si>
-  <si>
-    <t>26305.074813364154</t>
-  </si>
-  <si>
-    <t>31112.521412056696</t>
-  </si>
-  <si>
-    <t>37829.131029011456</t>
-  </si>
-  <si>
-    <t>43339.21921898596</t>
-  </si>
-  <si>
-    <t>48815.075012010704</t>
-  </si>
-  <si>
-    <t>54633.452877252355</t>
-  </si>
-  <si>
-    <t>61536.32087584769</t>
-  </si>
-  <si>
-    <t>68597.1538086069</t>
+    <t>Storage modulus (Pa)</t>
   </si>
 </sst>
 </file>
@@ -584,259 +392,259 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>34</v>
+      <c r="A2">
+        <v>0.01374178857149243</v>
+      </c>
+      <c r="B2">
+        <v>1.499311272168197</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>35</v>
+      <c r="A3">
+        <v>0.0181717562972194</v>
+      </c>
+      <c r="B3">
+        <v>2.53833780277672</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>36</v>
+      <c r="A4">
+        <v>0.02364082425179664</v>
+      </c>
+      <c r="B4">
+        <v>4.29462337821244</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>37</v>
+      <c r="A5">
+        <v>0.03125947240458293</v>
+      </c>
+      <c r="B5">
+        <v>7.121319105165592</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>38</v>
+      <c r="A6">
+        <v>0.04133186378377802</v>
+      </c>
+      <c r="B6">
+        <v>11.69789189288091</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>39</v>
+      <c r="A7">
+        <v>0.05376167888792931</v>
+      </c>
+      <c r="B7">
+        <v>18.88787980939252</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>40</v>
+      <c r="A8">
+        <v>0.07226026945424011</v>
+      </c>
+      <c r="B8">
+        <v>31.71466418180578</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>41</v>
+      <c r="A9">
+        <v>0.1003534145207583</v>
+      </c>
+      <c r="B9">
+        <v>54.28886951137018</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>42</v>
+      <c r="A10">
+        <v>0.1387958464760847</v>
+      </c>
+      <c r="B10">
+        <v>92.01268769598009</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>43</v>
+      <c r="A11">
+        <v>0.1903759354217866</v>
+      </c>
+      <c r="B11">
+        <v>149.9547638650818</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>44</v>
+      <c r="A12">
+        <v>0.2687128333529436</v>
+      </c>
+      <c r="B12">
+        <v>250.1407227955854</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>45</v>
+      <c r="A13">
+        <v>0.379282151835818</v>
+      </c>
+      <c r="B13">
+        <v>416.6711010700641</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>46</v>
+      <c r="A14">
+        <v>0.5441033063349225</v>
+      </c>
+      <c r="B14">
+        <v>676.8359044340086</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>47</v>
+      <c r="A15">
+        <v>0.7804114384264618</v>
+      </c>
+      <c r="B15">
+        <v>1049.979729651969</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>48</v>
+      <c r="A16">
+        <v>1.119234397422204</v>
+      </c>
+      <c r="B16">
+        <v>1585.588648758835</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>49</v>
+      <c r="A17">
+        <v>1.564595415534878</v>
+      </c>
+      <c r="B17">
+        <v>2265.200435986275</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>50</v>
+      <c r="A18">
+        <v>2.324298469659962</v>
+      </c>
+      <c r="B18">
+        <v>3454.387552630166</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>51</v>
+      <c r="A19">
+        <v>3.299927995501933</v>
+      </c>
+      <c r="B19">
+        <v>4817.018336925748</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>52</v>
+      <c r="A20">
+        <v>4.730424473778762</v>
+      </c>
+      <c r="B20">
+        <v>6444.545654984497</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>53</v>
+      <c r="A21">
+        <v>6.780699884743719</v>
+      </c>
+      <c r="B21">
+        <v>8512.750994298007</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>54</v>
+      <c r="A22">
+        <v>9.719453648788145</v>
+      </c>
+      <c r="B22">
+        <v>11197.0107588713</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>55</v>
+      <c r="A23">
+        <v>13.93004582157042</v>
+      </c>
+      <c r="B23">
+        <v>14235.42971789973</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>56</v>
+      <c r="A24">
+        <v>19.96406970111832</v>
+      </c>
+      <c r="B24">
+        <v>17945.1935843737</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>57</v>
+      <c r="A25">
+        <v>28.60879669161244</v>
+      </c>
+      <c r="B25">
+        <v>22005.44848908087</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>58</v>
+      <c r="A26">
+        <v>40.99280406762014</v>
+      </c>
+      <c r="B26">
+        <v>26305.07481336415</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>59</v>
+      <c r="A27">
+        <v>58.73513383609171</v>
+      </c>
+      <c r="B27">
+        <v>31112.5214120567</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>60</v>
+      <c r="A28">
+        <v>84.16554057025853</v>
+      </c>
+      <c r="B28">
+        <v>37829.13102901146</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>61</v>
+      <c r="A29">
+        <v>120.5789658387381</v>
+      </c>
+      <c r="B29">
+        <v>43339.21921898596</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>62</v>
+      <c r="A30">
+        <v>172.7350513118379</v>
+      </c>
+      <c r="B30">
+        <v>48815.0750120107</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>63</v>
+      <c r="A31">
+        <v>247.4450510451966</v>
+      </c>
+      <c r="B31">
+        <v>54633.45287725236</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" t="s">
-        <v>64</v>
+      <c r="A32">
+        <v>354.4766974226331</v>
+      </c>
+      <c r="B32">
+        <v>61536.32087584769</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>65</v>
+      <c r="A33">
+        <v>483.5248562583791</v>
+      </c>
+      <c r="B33">
+        <v>68597.1538086069</v>
       </c>
     </row>
   </sheetData>
